--- a/projects/__data__/talent_weapon_drops.xlsx
+++ b/projects/__data__/talent_weapon_drops.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/projects/__data__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{CA9DA09C-AC93-422E-BB06-F378660398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F5338D-0E23-4B54-A5B0-68453D1521BE}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{CA9DA09C-AC93-422E-BB06-F378660398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7802AFA6-0282-466A-B4E3-15404A9ACC20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="C592" sqref="C592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6748,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="9">
         <v>0</v>
       </c>
@@ -6759,8 +6759,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="576" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="9">
+        <v>0</v>
+      </c>
+      <c r="B575" s="9">
+        <v>3</v>
+      </c>
+      <c r="C575" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="9">
+        <v>0</v>
+      </c>
+      <c r="B576" s="9">
+        <v>2</v>
+      </c>
+      <c r="C576" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="9">
+        <v>0</v>
+      </c>
+      <c r="B577" s="9">
+        <v>2</v>
+      </c>
+      <c r="C577" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="9">
+        <v>0</v>
+      </c>
+      <c r="B578" s="9">
+        <v>2</v>
+      </c>
+      <c r="C578" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="9">
+        <v>0</v>
+      </c>
+      <c r="B579" s="9">
+        <v>2</v>
+      </c>
+      <c r="C579" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="9">
+        <v>0</v>
+      </c>
+      <c r="B580" s="9">
+        <v>2</v>
+      </c>
+      <c r="C580" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="9">
+        <v>0</v>
+      </c>
+      <c r="B581" s="9">
+        <v>2</v>
+      </c>
+      <c r="C581" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="9">
+        <v>0</v>
+      </c>
+      <c r="B582" s="9">
+        <v>2</v>
+      </c>
+      <c r="C582" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="9">
+        <v>0</v>
+      </c>
+      <c r="B583" s="9">
+        <v>2</v>
+      </c>
+      <c r="C583" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="9">
+        <v>1</v>
+      </c>
+      <c r="B584" s="9">
+        <v>1</v>
+      </c>
+      <c r="C584" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/__data__/talent_weapon_drops.xlsx
+++ b/projects/__data__/talent_weapon_drops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/projects/__data__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{CA9DA09C-AC93-422E-BB06-F378660398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7802AFA6-0282-466A-B4E3-15404A9ACC20}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{CA9DA09C-AC93-422E-BB06-F378660398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562BF473-AFAB-4EBD-9EB5-BB1B16EAD6F1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C593"/>
+  <dimension ref="A1:C605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C592" sqref="C592"/>
+      <selection pane="bottomLeft" activeCell="C600" sqref="C600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6869,15 +6869,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="586" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="587" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="588" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="589" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="590" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="591" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="592" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="593" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="9">
+        <v>0</v>
+      </c>
+      <c r="B585" s="9">
+        <v>2</v>
+      </c>
+      <c r="C585" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A586" s="9">
+        <v>1</v>
+      </c>
+      <c r="B586" s="9">
+        <v>1</v>
+      </c>
+      <c r="C586" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="9">
+        <v>1</v>
+      </c>
+      <c r="B587" s="9">
+        <v>2</v>
+      </c>
+      <c r="C587" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="9">
+        <v>0</v>
+      </c>
+      <c r="B588" s="9">
+        <v>2</v>
+      </c>
+      <c r="C588" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="9">
+        <v>2</v>
+      </c>
+      <c r="B589" s="9">
+        <v>0</v>
+      </c>
+      <c r="C589" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="9">
+        <v>0</v>
+      </c>
+      <c r="B590" s="9">
+        <v>2</v>
+      </c>
+      <c r="C590" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="9">
+        <v>1</v>
+      </c>
+      <c r="B591" s="9">
+        <v>1</v>
+      </c>
+      <c r="C591" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="9">
+        <v>1</v>
+      </c>
+      <c r="B592" s="9">
+        <v>2</v>
+      </c>
+      <c r="C592" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="9">
+        <v>0</v>
+      </c>
+      <c r="B593" s="9">
+        <v>2</v>
+      </c>
+      <c r="C593" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/__data__/talent_weapon_drops.xlsx
+++ b/projects/__data__/talent_weapon_drops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/projects/__data__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{CA9DA09C-AC93-422E-BB06-F378660398DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{562BF473-AFAB-4EBD-9EB5-BB1B16EAD6F1}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{D0C57FC1-9ECF-44AF-8F9A-0EAD3352689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15891481-D198-479D-BAD8-38721071CA8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C605"/>
+  <dimension ref="A1:C756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C600" sqref="C600"/>
+      <selection pane="bottomLeft" activeCell="A748" sqref="A748:XFD756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6968,18 +6968,1709 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="595" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="596" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="597" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="598" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="599" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="600" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="601" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="602" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="603" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="604" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="605" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="9">
+        <v>0</v>
+      </c>
+      <c r="B594" s="9">
+        <v>2</v>
+      </c>
+      <c r="C594" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="9">
+        <v>0</v>
+      </c>
+      <c r="B595" s="9">
+        <v>2</v>
+      </c>
+      <c r="C595" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="9">
+        <v>0</v>
+      </c>
+      <c r="B596" s="9">
+        <v>2</v>
+      </c>
+      <c r="C596" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="9">
+        <v>0</v>
+      </c>
+      <c r="B597" s="9">
+        <v>3</v>
+      </c>
+      <c r="C597" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="9">
+        <v>0</v>
+      </c>
+      <c r="B598" s="9">
+        <v>2</v>
+      </c>
+      <c r="C598" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="9">
+        <v>0</v>
+      </c>
+      <c r="B599" s="9">
+        <v>2</v>
+      </c>
+      <c r="C599" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="9">
+        <v>1</v>
+      </c>
+      <c r="B600" s="9">
+        <v>2</v>
+      </c>
+      <c r="C600" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="9">
+        <v>0</v>
+      </c>
+      <c r="B601" s="9">
+        <v>2</v>
+      </c>
+      <c r="C601" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="9">
+        <v>0</v>
+      </c>
+      <c r="B602" s="9">
+        <v>2</v>
+      </c>
+      <c r="C602" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="9">
+        <v>1</v>
+      </c>
+      <c r="B603" s="9">
+        <v>2</v>
+      </c>
+      <c r="C603" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="9">
+        <v>0</v>
+      </c>
+      <c r="B604" s="9">
+        <v>2</v>
+      </c>
+      <c r="C604" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="9">
+        <v>0</v>
+      </c>
+      <c r="B605" s="9">
+        <v>2</v>
+      </c>
+      <c r="C605" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="9">
+        <v>0</v>
+      </c>
+      <c r="B606" s="9">
+        <v>2</v>
+      </c>
+      <c r="C606" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="9">
+        <v>1</v>
+      </c>
+      <c r="B607" s="9">
+        <v>1</v>
+      </c>
+      <c r="C607" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="9">
+        <v>0</v>
+      </c>
+      <c r="B608" s="9">
+        <v>3</v>
+      </c>
+      <c r="C608" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="9">
+        <v>0</v>
+      </c>
+      <c r="B609" s="9">
+        <v>3</v>
+      </c>
+      <c r="C609" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="9">
+        <v>0</v>
+      </c>
+      <c r="B610" s="9">
+        <v>2</v>
+      </c>
+      <c r="C610" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="9">
+        <v>2</v>
+      </c>
+      <c r="B611" s="9">
+        <v>0</v>
+      </c>
+      <c r="C611" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="9">
+        <v>0</v>
+      </c>
+      <c r="B612" s="9">
+        <v>2</v>
+      </c>
+      <c r="C612" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="9">
+        <v>0</v>
+      </c>
+      <c r="B613" s="9">
+        <v>3</v>
+      </c>
+      <c r="C613" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="9">
+        <v>0</v>
+      </c>
+      <c r="B614" s="9">
+        <v>3</v>
+      </c>
+      <c r="C614" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="9">
+        <v>0</v>
+      </c>
+      <c r="B615" s="9">
+        <v>2</v>
+      </c>
+      <c r="C615" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="9">
+        <v>0</v>
+      </c>
+      <c r="B616" s="9">
+        <v>2</v>
+      </c>
+      <c r="C616" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="9">
+        <v>0</v>
+      </c>
+      <c r="B617" s="9">
+        <v>2</v>
+      </c>
+      <c r="C617" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="9">
+        <v>0</v>
+      </c>
+      <c r="B618" s="9">
+        <v>2</v>
+      </c>
+      <c r="C618" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="9">
+        <v>0</v>
+      </c>
+      <c r="B619" s="9">
+        <v>2</v>
+      </c>
+      <c r="C619" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="9">
+        <v>0</v>
+      </c>
+      <c r="B620" s="9">
+        <v>2</v>
+      </c>
+      <c r="C620" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="9">
+        <v>0</v>
+      </c>
+      <c r="B621" s="9">
+        <v>2</v>
+      </c>
+      <c r="C621" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="9">
+        <v>1</v>
+      </c>
+      <c r="B622" s="9">
+        <v>1</v>
+      </c>
+      <c r="C622" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="9">
+        <v>0</v>
+      </c>
+      <c r="B623" s="9">
+        <v>2</v>
+      </c>
+      <c r="C623" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="9">
+        <v>0</v>
+      </c>
+      <c r="B624" s="9">
+        <v>2</v>
+      </c>
+      <c r="C624" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="9">
+        <v>0</v>
+      </c>
+      <c r="B625" s="9">
+        <v>2</v>
+      </c>
+      <c r="C625" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="9">
+        <v>0</v>
+      </c>
+      <c r="B626" s="9">
+        <v>2</v>
+      </c>
+      <c r="C626" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="9">
+        <v>0</v>
+      </c>
+      <c r="B627" s="9">
+        <v>3</v>
+      </c>
+      <c r="C627" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="9">
+        <v>0</v>
+      </c>
+      <c r="B628" s="9">
+        <v>2</v>
+      </c>
+      <c r="C628" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="9">
+        <v>0</v>
+      </c>
+      <c r="B629" s="9">
+        <v>2</v>
+      </c>
+      <c r="C629" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="9">
+        <v>0</v>
+      </c>
+      <c r="B630" s="9">
+        <v>2</v>
+      </c>
+      <c r="C630" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="9">
+        <v>1</v>
+      </c>
+      <c r="B631" s="9">
+        <v>1</v>
+      </c>
+      <c r="C631" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="9">
+        <v>0</v>
+      </c>
+      <c r="B632" s="9">
+        <v>2</v>
+      </c>
+      <c r="C632" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="9">
+        <v>0</v>
+      </c>
+      <c r="B633" s="9">
+        <v>2</v>
+      </c>
+      <c r="C633" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="9">
+        <v>0</v>
+      </c>
+      <c r="B634" s="9">
+        <v>2</v>
+      </c>
+      <c r="C634" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="9">
+        <v>0</v>
+      </c>
+      <c r="B635" s="9">
+        <v>2</v>
+      </c>
+      <c r="C635" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="9">
+        <v>1</v>
+      </c>
+      <c r="B636" s="9">
+        <v>1</v>
+      </c>
+      <c r="C636" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="9">
+        <v>0</v>
+      </c>
+      <c r="B637" s="9">
+        <v>2</v>
+      </c>
+      <c r="C637" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="9">
+        <v>1</v>
+      </c>
+      <c r="B638" s="9">
+        <v>1</v>
+      </c>
+      <c r="C638" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="9">
+        <v>0</v>
+      </c>
+      <c r="B639" s="9">
+        <v>2</v>
+      </c>
+      <c r="C639" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="9">
+        <v>0</v>
+      </c>
+      <c r="B640" s="9">
+        <v>3</v>
+      </c>
+      <c r="C640" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="9">
+        <v>0</v>
+      </c>
+      <c r="B641" s="9">
+        <v>2</v>
+      </c>
+      <c r="C641" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="9">
+        <v>0</v>
+      </c>
+      <c r="B642" s="9">
+        <v>3</v>
+      </c>
+      <c r="C642" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="9">
+        <v>0</v>
+      </c>
+      <c r="B643" s="9">
+        <v>2</v>
+      </c>
+      <c r="C643" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="9">
+        <v>1</v>
+      </c>
+      <c r="B644" s="9">
+        <v>2</v>
+      </c>
+      <c r="C644" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="9">
+        <v>1</v>
+      </c>
+      <c r="B645" s="9">
+        <v>1</v>
+      </c>
+      <c r="C645" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="9">
+        <v>0</v>
+      </c>
+      <c r="B646" s="9">
+        <v>2</v>
+      </c>
+      <c r="C646" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="9">
+        <v>0</v>
+      </c>
+      <c r="B647" s="9">
+        <v>2</v>
+      </c>
+      <c r="C647" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="9">
+        <v>0</v>
+      </c>
+      <c r="B648" s="9">
+        <v>2</v>
+      </c>
+      <c r="C648" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="9">
+        <v>0</v>
+      </c>
+      <c r="B649" s="9">
+        <v>2</v>
+      </c>
+      <c r="C649" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="9">
+        <v>0</v>
+      </c>
+      <c r="B650" s="9">
+        <v>2</v>
+      </c>
+      <c r="C650" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="9">
+        <v>0</v>
+      </c>
+      <c r="B651" s="9">
+        <v>2</v>
+      </c>
+      <c r="C651" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="9">
+        <v>0</v>
+      </c>
+      <c r="B652" s="9">
+        <v>3</v>
+      </c>
+      <c r="C652" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="9">
+        <v>0</v>
+      </c>
+      <c r="B653" s="9">
+        <v>2</v>
+      </c>
+      <c r="C653" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="9">
+        <v>0</v>
+      </c>
+      <c r="B654" s="9">
+        <v>2</v>
+      </c>
+      <c r="C654" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="9">
+        <v>0</v>
+      </c>
+      <c r="B655" s="9">
+        <v>3</v>
+      </c>
+      <c r="C655" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="9">
+        <v>0</v>
+      </c>
+      <c r="B656" s="9">
+        <v>2</v>
+      </c>
+      <c r="C656" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="9">
+        <v>0</v>
+      </c>
+      <c r="B657" s="9">
+        <v>2</v>
+      </c>
+      <c r="C657" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="9">
+        <v>0</v>
+      </c>
+      <c r="B658" s="9">
+        <v>2</v>
+      </c>
+      <c r="C658" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="9">
+        <v>0</v>
+      </c>
+      <c r="B659" s="9">
+        <v>2</v>
+      </c>
+      <c r="C659" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="9">
+        <v>0</v>
+      </c>
+      <c r="B660" s="9">
+        <v>3</v>
+      </c>
+      <c r="C660" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="9">
+        <v>0</v>
+      </c>
+      <c r="B661" s="9">
+        <v>2</v>
+      </c>
+      <c r="C661" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="9">
+        <v>0</v>
+      </c>
+      <c r="B662" s="9">
+        <v>2</v>
+      </c>
+      <c r="C662" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="9">
+        <v>0</v>
+      </c>
+      <c r="B663" s="9">
+        <v>2</v>
+      </c>
+      <c r="C663" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="9">
+        <v>1</v>
+      </c>
+      <c r="B664" s="9">
+        <v>1</v>
+      </c>
+      <c r="C664" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="9">
+        <v>0</v>
+      </c>
+      <c r="B665" s="9">
+        <v>3</v>
+      </c>
+      <c r="C665" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="9">
+        <v>1</v>
+      </c>
+      <c r="B666" s="9">
+        <v>1</v>
+      </c>
+      <c r="C666" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="9">
+        <v>0</v>
+      </c>
+      <c r="B667" s="9">
+        <v>2</v>
+      </c>
+      <c r="C667" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="9">
+        <v>2</v>
+      </c>
+      <c r="B668" s="9">
+        <v>1</v>
+      </c>
+      <c r="C668" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="9">
+        <v>0</v>
+      </c>
+      <c r="B669" s="9">
+        <v>2</v>
+      </c>
+      <c r="C669" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="9">
+        <v>0</v>
+      </c>
+      <c r="B670" s="9">
+        <v>2</v>
+      </c>
+      <c r="C670" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="9">
+        <v>0</v>
+      </c>
+      <c r="B671" s="9">
+        <v>2</v>
+      </c>
+      <c r="C671" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="9">
+        <v>0</v>
+      </c>
+      <c r="B672" s="9">
+        <v>2</v>
+      </c>
+      <c r="C672" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="9">
+        <v>0</v>
+      </c>
+      <c r="B673" s="9">
+        <v>2</v>
+      </c>
+      <c r="C673" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="9">
+        <v>0</v>
+      </c>
+      <c r="B674" s="9">
+        <v>2</v>
+      </c>
+      <c r="C674" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="9">
+        <v>0</v>
+      </c>
+      <c r="B675" s="9">
+        <v>2</v>
+      </c>
+      <c r="C675" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="9">
+        <v>0</v>
+      </c>
+      <c r="B676" s="9">
+        <v>2</v>
+      </c>
+      <c r="C676" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="9">
+        <v>0</v>
+      </c>
+      <c r="B677" s="9">
+        <v>2</v>
+      </c>
+      <c r="C677" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="9">
+        <v>0</v>
+      </c>
+      <c r="B678" s="9">
+        <v>2</v>
+      </c>
+      <c r="C678" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="9">
+        <v>0</v>
+      </c>
+      <c r="B679" s="9">
+        <v>2</v>
+      </c>
+      <c r="C679" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="9">
+        <v>0</v>
+      </c>
+      <c r="B680" s="9">
+        <v>2</v>
+      </c>
+      <c r="C680" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="9">
+        <v>0</v>
+      </c>
+      <c r="B681" s="9">
+        <v>2</v>
+      </c>
+      <c r="C681" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="9">
+        <v>0</v>
+      </c>
+      <c r="B682" s="9">
+        <v>2</v>
+      </c>
+      <c r="C682" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="9">
+        <v>0</v>
+      </c>
+      <c r="B683" s="9">
+        <v>2</v>
+      </c>
+      <c r="C683" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="9">
+        <v>1</v>
+      </c>
+      <c r="B684" s="9">
+        <v>2</v>
+      </c>
+      <c r="C684" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="9">
+        <v>0</v>
+      </c>
+      <c r="B685" s="9">
+        <v>3</v>
+      </c>
+      <c r="C685" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="9">
+        <v>0</v>
+      </c>
+      <c r="B686" s="9">
+        <v>2</v>
+      </c>
+      <c r="C686" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="9">
+        <v>0</v>
+      </c>
+      <c r="B687" s="9">
+        <v>2</v>
+      </c>
+      <c r="C687" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="9">
+        <v>0</v>
+      </c>
+      <c r="B688" s="9">
+        <v>2</v>
+      </c>
+      <c r="C688" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="9">
+        <v>0</v>
+      </c>
+      <c r="B689" s="9">
+        <v>2</v>
+      </c>
+      <c r="C689" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="9">
+        <v>0</v>
+      </c>
+      <c r="B690" s="9">
+        <v>2</v>
+      </c>
+      <c r="C690" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="9">
+        <v>0</v>
+      </c>
+      <c r="B691" s="9">
+        <v>2</v>
+      </c>
+      <c r="C691" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="9">
+        <v>0</v>
+      </c>
+      <c r="B692" s="9">
+        <v>2</v>
+      </c>
+      <c r="C692" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="9">
+        <v>0</v>
+      </c>
+      <c r="B693" s="9">
+        <v>3</v>
+      </c>
+      <c r="C693" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="9">
+        <v>0</v>
+      </c>
+      <c r="B694" s="9">
+        <v>2</v>
+      </c>
+      <c r="C694" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="9">
+        <v>0</v>
+      </c>
+      <c r="B695" s="9">
+        <v>2</v>
+      </c>
+      <c r="C695" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="9">
+        <v>0</v>
+      </c>
+      <c r="B696" s="9">
+        <v>2</v>
+      </c>
+      <c r="C696" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="9">
+        <v>0</v>
+      </c>
+      <c r="B697" s="9">
+        <v>2</v>
+      </c>
+      <c r="C697" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="9">
+        <v>0</v>
+      </c>
+      <c r="B698" s="9">
+        <v>3</v>
+      </c>
+      <c r="C698" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="9">
+        <v>1</v>
+      </c>
+      <c r="B699" s="9">
+        <v>1</v>
+      </c>
+      <c r="C699" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="9">
+        <v>0</v>
+      </c>
+      <c r="B700" s="9">
+        <v>3</v>
+      </c>
+      <c r="C700" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="9">
+        <v>0</v>
+      </c>
+      <c r="B701" s="9">
+        <v>2</v>
+      </c>
+      <c r="C701" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="9">
+        <v>0</v>
+      </c>
+      <c r="B702" s="9">
+        <v>3</v>
+      </c>
+      <c r="C702" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="9">
+        <v>0</v>
+      </c>
+      <c r="B703" s="9">
+        <v>2</v>
+      </c>
+      <c r="C703" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="9">
+        <v>1</v>
+      </c>
+      <c r="B704" s="9">
+        <v>2</v>
+      </c>
+      <c r="C704" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="9">
+        <v>0</v>
+      </c>
+      <c r="B705" s="9">
+        <v>2</v>
+      </c>
+      <c r="C705" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="9">
+        <v>0</v>
+      </c>
+      <c r="B706" s="9">
+        <v>2</v>
+      </c>
+      <c r="C706" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="9">
+        <v>0</v>
+      </c>
+      <c r="B707" s="9">
+        <v>2</v>
+      </c>
+      <c r="C707" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="9">
+        <v>2</v>
+      </c>
+      <c r="B708" s="9">
+        <v>1</v>
+      </c>
+      <c r="C708" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="9">
+        <v>1</v>
+      </c>
+      <c r="B709" s="9">
+        <v>1</v>
+      </c>
+      <c r="C709" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="9">
+        <v>0</v>
+      </c>
+      <c r="B710" s="9">
+        <v>2</v>
+      </c>
+      <c r="C710" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="9">
+        <v>0</v>
+      </c>
+      <c r="B711" s="9">
+        <v>3</v>
+      </c>
+      <c r="C711" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="9">
+        <v>0</v>
+      </c>
+      <c r="B712" s="9">
+        <v>2</v>
+      </c>
+      <c r="C712" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="9">
+        <v>0</v>
+      </c>
+      <c r="B713" s="9">
+        <v>2</v>
+      </c>
+      <c r="C713" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="9">
+        <v>0</v>
+      </c>
+      <c r="B714" s="9">
+        <v>2</v>
+      </c>
+      <c r="C714" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="9">
+        <v>1</v>
+      </c>
+      <c r="B715" s="9">
+        <v>1</v>
+      </c>
+      <c r="C715" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="9">
+        <v>2</v>
+      </c>
+      <c r="B716" s="9">
+        <v>0</v>
+      </c>
+      <c r="C716" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="9">
+        <v>0</v>
+      </c>
+      <c r="B717" s="9">
+        <v>2</v>
+      </c>
+      <c r="C717" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="9">
+        <v>1</v>
+      </c>
+      <c r="B718" s="9">
+        <v>1</v>
+      </c>
+      <c r="C718" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="9">
+        <v>0</v>
+      </c>
+      <c r="B719" s="9">
+        <v>2</v>
+      </c>
+      <c r="C719" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="9">
+        <v>0</v>
+      </c>
+      <c r="B720" s="9">
+        <v>2</v>
+      </c>
+      <c r="C720" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="9">
+        <v>1</v>
+      </c>
+      <c r="B721" s="9">
+        <v>2</v>
+      </c>
+      <c r="C721" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="9">
+        <v>1</v>
+      </c>
+      <c r="B722" s="9">
+        <v>1</v>
+      </c>
+      <c r="C722" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="9">
+        <v>1</v>
+      </c>
+      <c r="B723" s="9">
+        <v>1</v>
+      </c>
+      <c r="C723" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="9">
+        <v>0</v>
+      </c>
+      <c r="B724" s="9">
+        <v>2</v>
+      </c>
+      <c r="C724" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="9">
+        <v>0</v>
+      </c>
+      <c r="B725" s="9">
+        <v>2</v>
+      </c>
+      <c r="C725" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="9">
+        <v>0</v>
+      </c>
+      <c r="B726" s="9">
+        <v>2</v>
+      </c>
+      <c r="C726" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="9">
+        <v>0</v>
+      </c>
+      <c r="B727" s="9">
+        <v>3</v>
+      </c>
+      <c r="C727" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="9">
+        <v>0</v>
+      </c>
+      <c r="B728" s="9">
+        <v>2</v>
+      </c>
+      <c r="C728" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="9">
+        <v>0</v>
+      </c>
+      <c r="B729" s="9">
+        <v>3</v>
+      </c>
+      <c r="C729" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="9">
+        <v>0</v>
+      </c>
+      <c r="B730" s="9">
+        <v>2</v>
+      </c>
+      <c r="C730" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A731" s="9">
+        <v>1</v>
+      </c>
+      <c r="B731" s="9">
+        <v>1</v>
+      </c>
+      <c r="C731" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A732" s="9">
+        <v>0</v>
+      </c>
+      <c r="B732" s="9">
+        <v>2</v>
+      </c>
+      <c r="C732" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A733" s="9">
+        <v>0</v>
+      </c>
+      <c r="B733" s="9">
+        <v>2</v>
+      </c>
+      <c r="C733" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A734" s="9">
+        <v>0</v>
+      </c>
+      <c r="B734" s="9">
+        <v>2</v>
+      </c>
+      <c r="C734" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A735" s="9">
+        <v>0</v>
+      </c>
+      <c r="B735" s="9">
+        <v>2</v>
+      </c>
+      <c r="C735" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A736" s="9">
+        <v>0</v>
+      </c>
+      <c r="B736" s="9">
+        <v>2</v>
+      </c>
+      <c r="C736" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A737" s="9">
+        <v>1</v>
+      </c>
+      <c r="B737" s="9">
+        <v>1</v>
+      </c>
+      <c r="C737" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A738" s="9">
+        <v>1</v>
+      </c>
+      <c r="B738" s="9">
+        <v>2</v>
+      </c>
+      <c r="C738" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A739" s="9">
+        <v>1</v>
+      </c>
+      <c r="B739" s="9">
+        <v>1</v>
+      </c>
+      <c r="C739" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A740" s="9">
+        <v>0</v>
+      </c>
+      <c r="B740" s="9">
+        <v>2</v>
+      </c>
+      <c r="C740" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A741" s="9">
+        <v>1</v>
+      </c>
+      <c r="B741" s="9">
+        <v>2</v>
+      </c>
+      <c r="C741" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A742" s="9">
+        <v>0</v>
+      </c>
+      <c r="B742" s="9">
+        <v>2</v>
+      </c>
+      <c r="C742" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A743" s="9">
+        <v>2</v>
+      </c>
+      <c r="B743" s="9">
+        <v>1</v>
+      </c>
+      <c r="C743" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A744" s="9">
+        <v>0</v>
+      </c>
+      <c r="B744" s="9">
+        <v>2</v>
+      </c>
+      <c r="C744" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A745" s="9">
+        <v>0</v>
+      </c>
+      <c r="B745" s="9">
+        <v>3</v>
+      </c>
+      <c r="C745" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A746" s="9">
+        <v>0</v>
+      </c>
+      <c r="B746" s="9">
+        <v>2</v>
+      </c>
+      <c r="C746" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A747" s="9">
+        <v>0</v>
+      </c>
+      <c r="B747" s="9">
+        <v>3</v>
+      </c>
+      <c r="C747" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="749" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="750" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="751" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="752" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
